--- a/PERFORMANCE COMPARISON/Performance_comparison.xlsx
+++ b/PERFORMANCE COMPARISON/Performance_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/PERFORMANCE COMPARISON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2D28BD-BA77-F449-A0A4-BBBB508CDBDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1C2D28BD-BA77-F449-A0A4-BBBB508CDBDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4D738ADE-2B5D-EF41-BCDD-2BF7128F4CEF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{1E8C2974-E166-2948-92E2-DB10FC85B00C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{1E8C2974-E166-2948-92E2-DB10FC85B00C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,6 @@
     <t>#BUGS</t>
   </si>
   <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:RANK</t>
-  </si>
-  <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:EXAM</t>
-  </si>
-  <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:SPACE</t>
-  </si>
-  <si>
-    <t>VARCOP_DISABLE_BUGGY_PC_DETECTION:RANK</t>
-  </si>
-  <si>
-    <t>VARCOP_DISABLE_BUGGY_PC_DETECTION:EXAM</t>
-  </si>
-  <si>
     <t>SBFL:RANK</t>
   </si>
   <si>
@@ -160,6 +145,21 @@
   </si>
   <si>
     <t>Kulczynski2</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:RANK</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:EXAM</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:SPACE</t>
+  </si>
+  <si>
+    <t>VARCOP_DISABLE_SUSPICIOUS_STM_ISOLATION:RANK</t>
+  </si>
+  <si>
+    <t>VARCOP_DISABLE_SUSPICIOUS_STM_ISOLATION:EXAM</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,39 +557,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>257</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>257</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
         <v>257</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>257</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>257</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>257</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>257</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>257</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>257</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>257</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>257</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>257</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
         <v>257</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>257</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>257</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
         <v>257</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3">
         <v>257</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3">
         <v>257</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>257</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>257</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>257</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3">
         <v>257</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>257</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>257</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>257</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3">
         <v>257</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>257</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>257</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>257</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
         <v>257</v>
